--- a/02_Deckbox/01_Hardware/BOM.xlsx
+++ b/02_Deckbox/01_Hardware/BOM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B530254-4359-491B-B379-8E9E31B77AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0284C3D-63EE-4FA2-BA87-745FE13B5999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14508" yWindow="-7908" windowWidth="14616" windowHeight="22536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-7335" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="105">
   <si>
     <t>#</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>~5 cm foam tape (20x2 mm)</t>
+  </si>
+  <si>
+    <t>4250851617605</t>
+  </si>
+  <si>
+    <t>https://recable.eu/products/ersatzteil-usb-c-stecker-5-litzen-usb-2-0?variant=40046555693115</t>
   </si>
 </sst>
 </file>
@@ -718,19 +724,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="4.42578125" customWidth="1"/>
-    <col min="4" max="4" width="64.7109375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" style="15" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="1" max="3" width="4.44140625" customWidth="1"/>
+    <col min="4" max="4" width="64.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="22.44140625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -750,7 +756,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -760,7 +766,7 @@
       <c r="E2" s="13"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -779,7 +785,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -796,7 +802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -810,7 +816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -827,14 +833,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="D7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="13"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -854,7 +860,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -871,7 +877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -892,7 +898,7 @@
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -906,7 +912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -927,7 +933,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -946,7 +952,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -965,7 +971,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>12</v>
       </c>
@@ -984,7 +990,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>13</v>
       </c>
@@ -997,16 +1003,21 @@
       <c r="D16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="D17" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>14</v>
       </c>
@@ -1023,14 +1034,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="D19" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E19" s="14"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>15</v>
       </c>
@@ -1047,7 +1058,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>16</v>
       </c>
@@ -1064,7 +1075,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>17</v>
       </c>
@@ -1081,7 +1092,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>18</v>
       </c>
@@ -1098,7 +1109,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>19</v>
       </c>
@@ -1115,14 +1126,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="D25" s="11" t="s">
         <v>45</v>
       </c>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>20</v>
       </c>
@@ -1139,7 +1150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>21</v>
       </c>
@@ -1156,7 +1167,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>22</v>
       </c>
@@ -1173,7 +1184,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>23</v>
       </c>
@@ -1190,7 +1201,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>24</v>
       </c>
@@ -1205,7 +1216,7 @@
       </c>
       <c r="E30" s="14"/>
     </row>
-    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31"/>
       <c r="C31"/>
@@ -1215,7 +1226,7 @@
       <c r="E31" s="13"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>25</v>
       </c>
@@ -1232,7 +1243,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
         <v>26</v>
       </c>
@@ -1250,7 +1261,7 @@
       </c>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>27</v>
       </c>
@@ -1267,7 +1278,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>28</v>
       </c>
@@ -1284,7 +1295,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>29</v>
       </c>
@@ -1301,7 +1312,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>30</v>
       </c>
@@ -1318,7 +1329,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>31</v>
       </c>
@@ -1338,7 +1349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>32</v>
       </c>
@@ -1358,7 +1369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>33</v>
       </c>
@@ -1375,7 +1386,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>34</v>
       </c>
@@ -1392,7 +1403,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>35</v>
       </c>
@@ -1409,14 +1420,14 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="D43" s="11" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="13"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>36</v>
       </c>
@@ -1433,7 +1444,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>37</v>
       </c>
@@ -1450,7 +1461,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>38</v>
       </c>
@@ -1467,7 +1478,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>39</v>
       </c>
@@ -1484,13 +1495,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -1498,82 +1509,82 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D53" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D54" s="9" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D55" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D56" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D57" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D58" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D59" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D60" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D61" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D62" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D63" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D64" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" s="9" t="s">
         <v>92</v>
       </c>
